--- a/data/suicidio/provincia_causa_anos.xlsx
+++ b/data/suicidio/provincia_causa_anos.xlsx
@@ -52,16 +52,16 @@
     <t xml:space="preserve">03 Alicante/Alacant</t>
   </si>
   <si>
-    <t xml:space="preserve">04 Almer�a</t>
+    <t xml:space="preserve">04 Almería</t>
   </si>
   <si>
-    <t xml:space="preserve">01 Araba/�lava</t>
+    <t xml:space="preserve">01 Araba/Álava</t>
   </si>
   <si>
     <t xml:space="preserve">33 Asturias</t>
   </si>
   <si>
-    <t xml:space="preserve">05 �vila</t>
+    <t xml:space="preserve">05 Ávila</t>
   </si>
   <si>
     <t xml:space="preserve">06 Badajoz</t>
@@ -79,25 +79,25 @@
     <t xml:space="preserve">09 Burgos</t>
   </si>
   <si>
-    <t xml:space="preserve">10 C�ceres</t>
+    <t xml:space="preserve">10 Cáceres</t>
   </si>
   <si>
-    <t xml:space="preserve">11 C�diz</t>
+    <t xml:space="preserve">11 Cádiz</t>
   </si>
   <si>
     <t xml:space="preserve">39 Cantabria</t>
   </si>
   <si>
-    <t xml:space="preserve">12 Castell�n/Castell�</t>
+    <t xml:space="preserve">12 Castellón/Castelló</t>
   </si>
   <si>
     <t xml:space="preserve">13 Ciudad Real</t>
   </si>
   <si>
-    <t xml:space="preserve">14 C�rdoba</t>
+    <t xml:space="preserve">14 Córdoba</t>
   </si>
   <si>
-    <t xml:space="preserve">15 Coru�a, A</t>
+    <t xml:space="preserve">15 Coruña, A</t>
   </si>
   <si>
     <t xml:space="preserve">16 Cuenca</t>
@@ -121,10 +121,10 @@
     <t xml:space="preserve">22 Huesca</t>
   </si>
   <si>
-    <t xml:space="preserve">23 Ja�n</t>
+    <t xml:space="preserve">23 Jaén</t>
   </si>
   <si>
-    <t xml:space="preserve">24 Le�n</t>
+    <t xml:space="preserve">24 León</t>
   </si>
   <si>
     <t xml:space="preserve">25 Lleida</t>
@@ -136,7 +136,7 @@
     <t xml:space="preserve">28 Madrid</t>
   </si>
   <si>
-    <t xml:space="preserve">29 M�laga</t>
+    <t xml:space="preserve">29 Málaga</t>
   </si>
   <si>
     <t xml:space="preserve">30 Murcia</t>
@@ -184,7 +184,7 @@
     <t xml:space="preserve">45 Toledo</t>
   </si>
   <si>
-    <t xml:space="preserve">46 Valencia/Val�ncia</t>
+    <t xml:space="preserve">46 Valencia/València</t>
   </si>
   <si>
     <t xml:space="preserve">47 Valladolid</t>
